--- a/biology/Histoire de la zoologie et de la botanique/Walter_Kenrick_Fisher/Walter_Kenrick_Fisher.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Walter_Kenrick_Fisher/Walter_Kenrick_Fisher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Kenrick Fisher (1er février 1878 - 2 novembre 1953) est un zoologiste américain, biologiste de l'évolution, illustrateur et peintre. Il enseigne à l'Université Stanford avant de devenir professeur émérite de zoologie jusqu'à sa retraite en 1943. Fisher est le fils de l'ornithologue Albert Kenrick Fisher.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxon nommé en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-ange Centropyge fisheri ( Snyder, 1904)[1], l'hippocampe de Fisher ( Hippocampus fisheri )[2], le crinoïde Parametra fisheri (Clark, 1908), les étoiles de mer Nepanthia fisheri Rowe &amp; Marsh, 1982, Astroceramus fisheri Koehler, 1909, le chiton Callistochiton fisheri WH Dall, 1919 et le sous-genre du ver d'arachide Fisherana Stephen, 1965 ont tous été nommés en l'honneur de Fisher[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-ange Centropyge fisheri ( Snyder, 1904), l'hippocampe de Fisher ( Hippocampus fisheri ), le crinoïde Parametra fisheri (Clark, 1908), les étoiles de mer Nepanthia fisheri Rowe &amp; Marsh, 1982, Astroceramus fisheri Koehler, 1909, le chiton Callistochiton fisheri WH Dall, 1919 et le sous-genre du ver d'arachide Fisherana Stephen, 1965 ont tous été nommés en l'honneur de Fisher.
 </t>
         </is>
       </c>
